--- a/PROYECTO AUTENTICACION/BD/Resumen_HU_Buscar_Usuario.xlsx
+++ b/PROYECTO AUTENTICACION/BD/Resumen_HU_Buscar_Usuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be05b0864064607e/VUCE_2.0/Transversales/Release II/2. Análisis/BD ORACLE - Revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFDBF4C0-30B9-4555-81A0-9C9A2F783087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046886F-5915-4E74-B4A3-83861281F13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1486CECC-2314-4586-B0C3-8B2B84995D73}"/>
+    <workbookView xWindow="-15960" yWindow="3000" windowWidth="26475" windowHeight="9135" xr2:uid="{1486CECC-2314-4586-B0C3-8B2B84995D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -104,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +130,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -186,20 +190,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,26 +541,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196A24D4-9631-4235-808B-88564EFB5F98}">
   <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.875" customWidth="1"/>
+    <col min="8" max="8" width="25.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8">
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8">
       <c r="D2" t="s">
         <v>1</v>
       </c>
@@ -569,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -589,7 +595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="28.5">
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
@@ -603,56 +609,56 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8">
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="2:8">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="2:8">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="2:8" hidden="1">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8">
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1"/>
@@ -660,14 +666,14 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
+    <row r="12" spans="2:8">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PROYECTO AUTENTICACION/BD/Resumen_HU_Buscar_Usuario.xlsx
+++ b/PROYECTO AUTENTICACION/BD/Resumen_HU_Buscar_Usuario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046886F-5915-4E74-B4A3-83861281F13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A897ED-756C-4A09-8971-DCBB3F19EE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15960" yWindow="3000" windowWidth="26475" windowHeight="9135" xr2:uid="{1486CECC-2314-4586-B0C3-8B2B84995D73}"/>
+    <workbookView xWindow="-2355" yWindow="5940" windowWidth="21600" windowHeight="11295" xr2:uid="{1486CECC-2314-4586-B0C3-8B2B84995D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -198,13 +198,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,18 +542,18 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="38.875" customWidth="1"/>
-    <col min="8" max="8" width="25.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -632,14 +632,14 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" hidden="1">
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="2:8">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1"/>
@@ -648,7 +648,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="C10" s="6"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -658,7 +658,7 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1"/>
@@ -667,7 +667,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1"/>
